--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value705.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value705.xlsx
@@ -354,7 +354,7 @@
         <v>2.640612445008068</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.275445008639558</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value705.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value705.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.558734204686339</v>
+        <v>0.9931485056877136</v>
       </c>
       <c r="B1">
-        <v>2.640612445008068</v>
+        <v>1.444755554199219</v>
       </c>
       <c r="C1">
+        <v>2.963318109512329</v>
+      </c>
+      <c r="D1">
         <v>15</v>
       </c>
-      <c r="D1">
-        <v>1.275445008639558</v>
-      </c>
       <c r="E1">
-        <v>0.7574381345637454</v>
+        <v>1.508775949478149</v>
       </c>
     </row>
   </sheetData>
